--- a/Recycling/Met_rec_tech/metrec_tech_Avg_full_Min.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Avg_full_Min.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.568799948591272E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.740269890590587E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>8.39105766487834E-06</v>
+      </c>
+      <c r="E7">
         <v>14.45346870567168</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.056155032817843E-08</v>
-      </c>
-      <c r="F7">
-        <v>8.39105766487834E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38.51694014891042</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1545.974053452379</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>103.8349421265343</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1113743.041105316</v>
+      </c>
+      <c r="E7">
         <v>2672305.214135963</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>195888.3906510835</v>
-      </c>
-      <c r="F7">
-        <v>1113743.041105316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7121406.085177728</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1503.768417507519</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>101.0002116496795</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1071592.441052451</v>
+      </c>
+      <c r="E7">
         <v>2746708.041160184</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>190540.5686205769</v>
-      </c>
-      <c r="F7">
-        <v>1071592.441052451</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7319681.619844164</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.815447743123975E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.920872372874924E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.000111883081408058</v>
+      </c>
+      <c r="E7">
         <v>29.48871178550837</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.116994083705994E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.000111883081408058</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>78.58424645602138</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.14927716028001E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.71908992641437E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.001247545163941407</v>
+      </c>
+      <c r="E7">
         <v>62.50558741344155</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.456234358115851E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.001247545163941407</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>166.5706702247386</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.03320903577259E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.93952141010909E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.009759887102963103</v>
+      </c>
+      <c r="E7">
         <v>111.3109070183107</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0001309165925337988</v>
-      </c>
-      <c r="F7">
-        <v>0.009759887102963103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>296.6315997116185</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.491035993221325E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.702982071281017E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.07097919379767401</v>
+      </c>
+      <c r="E7">
         <v>214.8111763031355</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.001075888286713594</v>
-      </c>
-      <c r="F7">
-        <v>0.07097919379767401</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>572.4486896171969</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.68677391531015E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.819506796147552E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.4271488151141967</v>
+      </c>
+      <c r="E7">
         <v>390.8285336046739</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.007205638333832361</v>
-      </c>
-      <c r="F7">
-        <v>0.4271488151141967</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1041.51602247774</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002745636881563046</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.844099815652946E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.878225540452143</v>
+      </c>
+      <c r="E7">
         <v>578.536735592347</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.03478961298480886</v>
-      </c>
-      <c r="F7">
-        <v>1.878225540452143</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1541.738199496167</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001395131715566171</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.370365603562706E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>8.794102600907971</v>
+      </c>
+      <c r="E7">
         <v>993.5918040132998</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1767753513703848</v>
-      </c>
-      <c r="F7">
-        <v>8.794102600907971</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2647.815332565161</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.006494682069952827</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0004362136190822977</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38.10386538466071</v>
+      </c>
+      <c r="E7">
         <v>1689.953820009555</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.822932840064444</v>
-      </c>
-      <c r="F7">
-        <v>38.10386538466071</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4503.545236458561</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.02810885330685197</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.001887923765500713</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>154.79435714416</v>
+      </c>
+      <c r="E7">
         <v>2846.312850272958</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.561636771995298</v>
-      </c>
-      <c r="F7">
-        <v>154.79435714416</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7585.117727208128</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1012018952578087</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.006797198771689376</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>526.5642615374027</v>
+      </c>
+      <c r="E7">
         <v>4203.753276958541</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12.82316242541151</v>
-      </c>
-      <c r="F7">
-        <v>526.5642615374027</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11202.5505203371</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3625922876114616</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.02435341596813126</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1788.77900913035</v>
+      </c>
+      <c r="E7">
         <v>6471.698202627525</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45.94360398487236</v>
-      </c>
-      <c r="F7">
-        <v>1788.77900913035</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>17246.37991118351</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.222547667685862</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.08211209369109972</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5701.345116945964</v>
+      </c>
+      <c r="E7">
         <v>9811.508663210567</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>154.9074478853121</v>
-      </c>
-      <c r="F7">
-        <v>5701.345116945964</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>26146.61571191574</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.262385757322992</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.2191172843745901</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>14122.78927658281</v>
+      </c>
+      <c r="E7">
         <v>12436.02506513976</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>413.3727175161174</v>
-      </c>
-      <c r="F7">
-        <v>14122.78927658281</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>33140.66975053365</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.96570958939401</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.6021795348111365</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34232.37725990706</v>
+      </c>
+      <c r="E7">
         <v>17710.1780469585</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1136.033569638094</v>
-      </c>
-      <c r="F7">
-        <v>34232.37725990706</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47195.7204012604</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>19.84940439018861</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.33318004367458</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>60493.49837546987</v>
+      </c>
+      <c r="E7">
         <v>23965.53427498893</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2515.092586899208</v>
-      </c>
-      <c r="F7">
-        <v>60493.49837546987</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63865.57220995573</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>31.36865577071158</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.106867543646873</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>72095.00850994402</v>
+      </c>
+      <c r="E7">
         <v>31686.79710929949</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3974.682163707991</v>
-      </c>
-      <c r="F7">
-        <v>72095.00850994402</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>84441.90751875563</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>29.28442817090008</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.966880943146259</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>68439.26088064526</v>
+      </c>
+      <c r="E7">
         <v>40982.00074535632</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3710.592356142393</v>
-      </c>
-      <c r="F7">
-        <v>68439.26088064526</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>109212.6258433779</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>16.40690322190035</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.101965354927704</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>68269.64318664461</v>
+      </c>
+      <c r="E7">
         <v>51898.92172121871</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2078.897676535381</v>
-      </c>
-      <c r="F7">
-        <v>68269.64318664461</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>138305.0465210989</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.23479673835924</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8889116543160064</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>72343.44614464155</v>
+      </c>
+      <c r="E7">
         <v>64409.87694596223</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1676.964130078305</v>
-      </c>
-      <c r="F7">
-        <v>72343.44614464155</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>171645.3970909277</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>9.081757575518421E-05</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0002420190752174883</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>21.91835861319442</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.472140811824932</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>76900.38419785892</v>
+      </c>
+      <c r="E7">
         <v>78410.12281835344</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2777.24712446749</v>
-      </c>
-      <c r="F7">
-        <v>76900.38419785892</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>208954.5471169915</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>31.93738018143775</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.145065769640267</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>80339.57919762773</v>
+      </c>
+      <c r="E7">
         <v>93734.72385944074</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4046.744504788261</v>
-      </c>
-      <c r="F7">
-        <v>80339.57919762773</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>249792.961280774</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>44.92278741700407</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.017227243361949</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>83878.24919863832</v>
+      </c>
+      <c r="E7">
         <v>110196.82008289</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5692.108810640356</v>
-      </c>
-      <c r="F7">
-        <v>83878.24919863832</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>293662.6778087784</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>61.63336996233364</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.139589140458572</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>90460.74526549019</v>
+      </c>
+      <c r="E7">
         <v>127653.9753647259</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7809.485304984946</v>
-      </c>
-      <c r="F7">
-        <v>90460.74526549019</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>340184.1197445023</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>72.65899963497077</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.880122667790595</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>90973.57636715451</v>
+      </c>
+      <c r="E7">
         <v>146109.0147172819</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9206.528707922138</v>
-      </c>
-      <c r="F7">
-        <v>90973.57636715451</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>389364.8154420861</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>86.95314673643961</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.840185311607084</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>89719.91556371405</v>
+      </c>
+      <c r="E7">
         <v>165847.4187758002</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11017.72176461262</v>
-      </c>
-      <c r="F7">
-        <v>89719.91556371405</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>441965.5401012558</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>137.3539236567406</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.225340284269775</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91526.31774702144</v>
+      </c>
+      <c r="E7">
         <v>187605.3728380616</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17403.93960341423</v>
-      </c>
-      <c r="F7">
-        <v>91526.31774702144</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>499948.148390296</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>221.6306550013996</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.88576485753103</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91956.8925396514</v>
+      </c>
+      <c r="E7">
         <v>212749.869344052</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28082.53620441955</v>
-      </c>
-      <c r="F7">
-        <v>91956.8925396514</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>566955.5281908053</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>317.5171891804522</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.32595879543179</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>95641.77704282866</v>
+      </c>
+      <c r="E7">
         <v>243436.7309955101</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40232.19604088285</v>
-      </c>
-      <c r="F7">
-        <v>95641.77704282866</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>648732.7152215764</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>409.9922550487376</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.53702235832788</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>99312.25294191123</v>
+      </c>
+      <c r="E7">
         <v>282696.402144256</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51949.59310058023</v>
-      </c>
-      <c r="F7">
-        <v>99312.25294191123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>753355.5178647069</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.004565585935968597</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01216679565448559</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>394.8019210911156</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.51676755919325</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>97390.78749982671</v>
+      </c>
+      <c r="E7">
         <v>334387.4403340818</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50024.84535609763</v>
-      </c>
-      <c r="F7">
-        <v>97390.78749982671</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>891106.5771250549</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>350.8785260013477</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.56666423956633</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>90094.10587851393</v>
+      </c>
+      <c r="E7">
         <v>402978.8819757263</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44459.36826619939</v>
-      </c>
-      <c r="F7">
-        <v>90094.10587851393</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1073895.394552804</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>340.4444340868887</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.86586119073033</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82329.97511916111</v>
+      </c>
+      <c r="E7">
         <v>493155.2121634266</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43137.2778543555</v>
-      </c>
-      <c r="F7">
-        <v>82329.97511916111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1314205.619275889</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>308.9357261244022</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.74958707832819</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>86570.50001509362</v>
+      </c>
+      <c r="E7">
         <v>609272.7947243867</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39144.84985694951</v>
-      </c>
-      <c r="F7">
-        <v>86570.50001509362</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1623646.492523265</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>270.0853399733247</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.14021107451876</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>107295.6982169315</v>
+      </c>
+      <c r="E7">
         <v>754730.2995874125</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34222.16722698381</v>
-      </c>
-      <c r="F7">
-        <v>107295.6982169315</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2011275.104250255</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>240.3281534208222</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.14157743857414</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>157253.66988735</v>
+      </c>
+      <c r="E7">
         <v>931332.2193720259</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30451.67226230015</v>
-      </c>
-      <c r="F7">
-        <v>157253.66988735</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2481900.233279482</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>311.5644181974724</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.92614249248033</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>249694.3177447809</v>
+      </c>
+      <c r="E7">
         <v>1138721.439708861</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39477.92806001578</v>
-      </c>
-      <c r="F7">
-        <v>249694.3177447809</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3034570.208211418</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>483.9724918377024</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.50588557329262</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>375200.2008958173</v>
+      </c>
+      <c r="E7">
         <v>1373938.545503284</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61323.53407469553</v>
-      </c>
-      <c r="F7">
-        <v>375200.2008958173</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3661398.505997716</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>674.4847732850423</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.30159302666347</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>513391.8028797502</v>
+      </c>
+      <c r="E7">
         <v>1631150.236742354</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85463.10105426208</v>
-      </c>
-      <c r="F7">
-        <v>513391.8028797502</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4346840.009265903</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>949.8349242859978</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>63.79541375403532</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>709780.637249921</v>
+      </c>
+      <c r="E7">
         <v>1901593.195315897</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>120352.3657380121</v>
-      </c>
-      <c r="F7">
-        <v>709780.637249921</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5067541.417432639</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.04416897289215862</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1177055639701584</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1306.358003412269</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.74119292489543</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>960329.5090788053</v>
+      </c>
+      <c r="E7">
         <v>2173798.769423999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>165526.9480953643</v>
-      </c>
-      <c r="F7">
-        <v>960329.5090788053</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5792940.006492946</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1484.303940266755</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>99.69288513711319</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1087767.757086879</v>
+      </c>
+      <c r="E7">
         <v>2434173.954042182</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>188074.2496593737</v>
-      </c>
-      <c r="F7">
-        <v>1087767.757086879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6486811.879496321</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1492.622052887667</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>100.2515689912604</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1096079.250526001</v>
+      </c>
+      <c r="E7">
         <v>2667986.474370454</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>189128.2270472387</v>
-      </c>
-      <c r="F7">
-        <v>1096079.250526001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7109897.108028072</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1480.867549289485</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>99.46208083774468</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1086591.48520984</v>
+      </c>
+      <c r="E7">
         <v>2860723.968219264</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>187638.8289634816</v>
-      </c>
-      <c r="F7">
-        <v>1086591.48520984</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7623521.807136634</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1450.489569399112</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>97.42175177996143</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1061262.919408332</v>
+      </c>
+      <c r="E7">
         <v>2999685.755152063</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>183789.6740707023</v>
-      </c>
-      <c r="F7">
-        <v>1061262.919408332</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7993840.028960844</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1404.807222471453</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>94.35350892113397</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1023346.29142631</v>
+      </c>
+      <c r="E7">
         <v>3075560.958508081</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>178001.3224480861</v>
-      </c>
-      <c r="F7">
-        <v>1023346.29142631</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8196039.288250303</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1375.987734378129</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>92.41785555644519</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>994453.1718113567</v>
+      </c>
+      <c r="E7">
         <v>3083695.819686755</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>174349.6420532034</v>
-      </c>
-      <c r="F7">
-        <v>994453.1718113567</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8217717.818679177</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1342.48310184526</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>90.16752569337133</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>956728.8616883449</v>
+      </c>
+      <c r="E7">
         <v>3024788.543959354</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>170104.3130119021</v>
-      </c>
-      <c r="F7">
-        <v>956728.8616883449</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8060736.262228487</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1236.019260424457</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>83.01690968671137</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>857902.9925639302</v>
+      </c>
+      <c r="E7">
         <v>2904873.689985434</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>156614.4161330503</v>
-      </c>
-      <c r="F7">
-        <v>857902.9925639302</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7741176.068925799</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>989.8897046924651</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>66.48568258235669</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>647762.9468249673</v>
+      </c>
+      <c r="E7">
         <v>2734633.113032675</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>125427.6556202606</v>
-      </c>
-      <c r="F7">
-        <v>647762.9468249673</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7287503.234609402</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.2098560707031829</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.5592438659370508</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>654.3712204316099</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.95067152068396</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>365200.8739069411</v>
+      </c>
+      <c r="E7">
         <v>2528227.786463629</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82914.53855417627</v>
-      </c>
-      <c r="F7">
-        <v>365200.8739069411</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6737455.230786171</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>511.80505297548</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>34.37525224766895</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>219688.7863514159</v>
+      </c>
+      <c r="E7">
         <v>2301917.715021913</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>64850.16222010453</v>
-      </c>
-      <c r="F7">
-        <v>219688.7863514159</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6134363.221918038</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>528.3089546391438</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.48373247751606</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>203529.0094152511</v>
+      </c>
+      <c r="E7">
         <v>2072694.795940079</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66941.35044486112</v>
-      </c>
-      <c r="F7">
-        <v>203529.0094152511</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5523508.787261188</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>506.8000119919358</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>34.03908998174562</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>188183.0471268791</v>
+      </c>
+      <c r="E7">
         <v>1857028.834603089</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>64215.97989264584</v>
-      </c>
-      <c r="F7">
-        <v>188183.0471268791</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4948782.187430216</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>440.5256278373877</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.5877883393981</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>157643.2360525986</v>
+      </c>
+      <c r="E7">
         <v>1669710.76091891</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55818.4376283144</v>
-      </c>
-      <c r="F7">
-        <v>157643.2360525986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4449599.660396304</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>361.2611876822859</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.2640129902469</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>123442.4155374423</v>
+      </c>
+      <c r="E7">
         <v>1522759.661418332</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45774.94201907824</v>
-      </c>
-      <c r="F7">
-        <v>123442.4155374423</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4057990.779542723</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>312.8982573932097</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.01572945248537</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>122586.6906169412</v>
+      </c>
+      <c r="E7">
         <v>1424457.928139699</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39646.93711476467</v>
-      </c>
-      <c r="F7">
-        <v>122586.6906169412</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3796027.229177719</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>305.0428110415653</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.48812045705651</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>162767.1388073707</v>
+      </c>
+      <c r="E7">
         <v>1378707.780208481</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38651.5835768232</v>
-      </c>
-      <c r="F7">
-        <v>162767.1388073707</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3674108.003727082</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>342.1345343325993</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.97937633078685</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>234666.5653036007</v>
+      </c>
+      <c r="E7">
         <v>1384937.065442872</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43351.42829008363</v>
-      </c>
-      <c r="F7">
-        <v>234666.5653036007</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3690708.379140726</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>449.0855313922271</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>30.16271201825327</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>340016.46749838</v>
+      </c>
+      <c r="E7">
         <v>1438656.29984683</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56903.05203548474</v>
-      </c>
-      <c r="F7">
-        <v>340016.46749838</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3833864.363252041</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.375369740878307E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.953647756866968E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.004884707949453E-10</v>
+      </c>
+      <c r="E7">
         <v>0.7402584632932837</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.345236459635402E-13</v>
-      </c>
-      <c r="F7">
-        <v>2.004884707949453E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.972709216452881</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>625.2573027135642</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.99524286741576</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>475538.1221239738</v>
+      </c>
+      <c r="E7">
         <v>1532535.988872172</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>79225.55135895118</v>
-      </c>
-      <c r="F7">
-        <v>475538.1221239738</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4084043.641114143</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>848.5690735763227</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>56.99391943118299</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>636268.5999963722</v>
+      </c>
+      <c r="E7">
         <v>1657675.741106014</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>107521.099599274</v>
-      </c>
-      <c r="F7">
-        <v>636268.5999963722</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4417527.626529284</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1097.372777966373</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>73.70475502930705</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>813328.3346577663</v>
+      </c>
+      <c r="E7">
         <v>1804702.319832815</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>139046.6980607467</v>
-      </c>
-      <c r="F7">
-        <v>813328.3346577663</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4809337.651405666</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1321.420285676344</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.75284716559315</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>972120.5777375048</v>
+      </c>
+      <c r="E7">
         <v>1964481.098992146</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>167435.4705738969</v>
-      </c>
-      <c r="F7">
-        <v>972120.5777375048</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5235130.919393369</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1450.668646504469</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>97.4337794468096</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1063972.971198713</v>
+      </c>
+      <c r="E7">
         <v>2128449.371982407</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>183812.3647011772</v>
-      </c>
-      <c r="F7">
-        <v>1063972.971198713</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5672088.738010835</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1481.253247767911</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>99.48798617496315</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1085423.543006064</v>
+      </c>
+      <c r="E7">
         <v>2288734.706440885</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>187687.7003232866</v>
-      </c>
-      <c r="F7">
-        <v>1085423.543006064</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6099231.921408926</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1465.706242661151</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98.44377565157404</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1071965.733989494</v>
+      </c>
+      <c r="E7">
         <v>2438233.406053855</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>185717.7592346852</v>
-      </c>
-      <c r="F7">
-        <v>1071965.733989494</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6497629.882659093</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1435.690064926274</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>96.42774694074249</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1045374.356956865</v>
+      </c>
+      <c r="E7">
         <v>2570734.441114828</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>181914.4478292633</v>
-      </c>
-      <c r="F7">
-        <v>1045374.356956865</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6850730.895366826</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1400.891786778552</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>94.09052970898964</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1012055.585000056</v>
+      </c>
+      <c r="E7">
         <v>2681081.417759145</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>177505.202610326</v>
-      </c>
-      <c r="F7">
-        <v>1012055.585000056</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7144793.72426786</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1367.1409983155</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>91.82366684737829</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>974600.813734228</v>
+      </c>
+      <c r="E7">
         <v>2765332.172502099</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>173228.683466639</v>
-      </c>
-      <c r="F7">
-        <v>974600.813734228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7369312.927513616</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.09304452399285E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.092377385702886E-14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.304168811117464E-08</v>
+      </c>
+      <c r="E7">
         <v>2.363984500343677</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.7204186144326E-11</v>
-      </c>
-      <c r="F7">
-        <v>1.304168811117464E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6.29976453174587</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1325.220312421031</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>89.0080749659775</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>924201.688625996</v>
+      </c>
+      <c r="E7">
         <v>2820893.47133503</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>167916.9670917625</v>
-      </c>
-      <c r="F7">
-        <v>924201.688625996</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7517377.815280242</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1238.310494359181</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>83.17079981344347</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>833417.3816358063</v>
+      </c>
+      <c r="E7">
         <v>2846632.983218582</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>156904.7354479675</v>
-      </c>
-      <c r="F7">
-        <v>833417.3816358063</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7585970.847089408</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1061.383283013593</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>71.28753003304024</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>672195.4071828217</v>
+      </c>
+      <c r="E7">
         <v>2842973.349462267</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>134486.5152873671</v>
-      </c>
-      <c r="F7">
-        <v>672195.4071828217</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7576218.316591064</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>859.6953001057872</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>57.74120952003908</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>492101.7352166199</v>
+      </c>
+      <c r="E7">
         <v>2811955.809162152</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>108930.8895009927</v>
-      </c>
-      <c r="F7">
-        <v>492101.7352166199</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7493559.906514244</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>736.539107333056</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.4694561096092</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>374735.6854848273</v>
+      </c>
+      <c r="E7">
         <v>2757239.625468907</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93325.92617894299</v>
-      </c>
-      <c r="F7">
-        <v>374735.6854848273</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7347747.159733084</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>685.3859370135283</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>46.033766831477</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>323982.6231326816</v>
+      </c>
+      <c r="E7">
         <v>2683991.486634389</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>86844.37353695896</v>
-      </c>
-      <c r="F7">
-        <v>323982.6231326816</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7152548.744946942</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>645.1575368559181</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.33183687807292</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>299381.8470279906</v>
+      </c>
+      <c r="E7">
         <v>2598623.129009749</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81747.08451859264</v>
-      </c>
-      <c r="F7">
-        <v>299381.8470279906</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6925051.250179563</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>591.2077564717777</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.70831401789509</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>279392.1633558792</v>
+      </c>
+      <c r="E7">
         <v>2508358.797088563</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74911.17700007478</v>
-      </c>
-      <c r="F7">
-        <v>279392.1633558792</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6684506.510298165</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>539.3149382540432</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.22294648252901</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>270359.8929375487</v>
+      </c>
+      <c r="E7">
         <v>2420655.18267952</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68335.90452100507</v>
-      </c>
-      <c r="F7">
-        <v>270359.8929375487</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6450785.807273384</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>512.8246166040149</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>34.44373097156915</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>286760.8432105047</v>
+      </c>
+      <c r="E7">
         <v>2342544.26513336</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>64979.34982057817</v>
-      </c>
-      <c r="F7">
-        <v>286760.8432105047</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6242628.610038006</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.458180995730902E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.651030823306939E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.432707861085723E-07</v>
+      </c>
+      <c r="E7">
         <v>6.543527792757295</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.114729630212627E-09</v>
-      </c>
-      <c r="F7">
-        <v>4.432707861085723E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>17.43779804618548</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>528.2072198060686</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.47689948411553</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>336318.4807828589</v>
+      </c>
+      <c r="E7">
         <v>2280004.282525512</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66928.45975456799</v>
-      </c>
-      <c r="F7">
-        <v>336318.4807828589</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6075966.280318139</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>599.9730649921448</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.29703366742677</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>421183.6982915654</v>
+      </c>
+      <c r="E7">
         <v>2237467.155196922</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76021.81800713475</v>
-      </c>
-      <c r="F7">
-        <v>421183.6982915654</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5962609.409328486</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>732.3543151378467</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.18838563858106</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>537423.0351773675</v>
+      </c>
+      <c r="E7">
         <v>2217536.805136526</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92795.67652404215</v>
-      </c>
-      <c r="F7">
-        <v>537423.0351773675</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5909497.169211214</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>913.610795189937</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>61.36242961702862</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>676380.1061857225</v>
+      </c>
+      <c r="E7">
         <v>2220936.54378003</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>115762.4527730964</v>
-      </c>
-      <c r="F7">
-        <v>676380.1061857225</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5918557.107176305</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1119.948167072587</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>75.22102512199913</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>826070.97475643</v>
+      </c>
+      <c r="E7">
         <v>2246651.128636332</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>141907.1966767892</v>
-      </c>
-      <c r="F7">
-        <v>826070.97475643</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5987083.711137853</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1319.616507408574</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.63169687097808</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>968460.6636200806</v>
+      </c>
+      <c r="E7">
         <v>2292200.815682473</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>167206.9161417084</v>
-      </c>
-      <c r="F7">
-        <v>968460.6636200806</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6108468.729882135</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1479.3260191672</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>99.35854437109029</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1081635.569971805</v>
+      </c>
+      <c r="E7">
         <v>2353984.445109341</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>187443.5036576524</v>
-      </c>
-      <c r="F7">
-        <v>1081635.569971805</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6273115.459693316</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1571.820931491593</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>105.5709409160094</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1146448.331037788</v>
+      </c>
+      <c r="E7">
         <v>2427644.64839182</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>199163.4154363635</v>
-      </c>
-      <c r="F7">
-        <v>1146448.331037788</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6469411.98193054</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1597.301669023654</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>107.282347974281</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1162428.649022135</v>
+      </c>
+      <c r="E7">
         <v>2508426.054605072</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>202392.0470273088</v>
-      </c>
-      <c r="F7">
-        <v>1162428.649022135</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6684685.744348532</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1580.93252854153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>106.1829189438734</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1146359.150835856</v>
+      </c>
+      <c r="E7">
         <v>2591508.871606598</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>200317.9342191255</v>
-      </c>
-      <c r="F7">
-        <v>1146359.150835856</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6906092.519083158</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
